--- a/notes/co2_flux_decomp_variables.xlsx
+++ b/notes/co2_flux_decomp_variables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17860" yWindow="1560" windowWidth="28800" windowHeight="20820" tabRatio="500"/>
+    <workbookView xWindow="51200" yWindow="7660" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>CalCS</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Native Units</t>
   </si>
   <si>
-    <t>Subsetted</t>
-  </si>
-  <si>
     <t>Do not have</t>
   </si>
   <si>
@@ -114,13 +111,67 @@
   </si>
   <si>
     <t>dyne2/cm4</t>
+  </si>
+  <si>
+    <t>Subsetted (but need to generate residuals)</t>
+  </si>
+  <si>
+    <t>Reduced (prior to subestting)</t>
+  </si>
+  <si>
+    <t>Subsetted + residuals</t>
+  </si>
+  <si>
+    <t>RHO</t>
+  </si>
+  <si>
+    <t>g/cm3</t>
+  </si>
+  <si>
+    <t>∆F</t>
+  </si>
+  <si>
+    <t>Regression Term</t>
+  </si>
+  <si>
+    <t>Computed?</t>
+  </si>
+  <si>
+    <t>∆U</t>
+  </si>
+  <si>
+    <t>∆T</t>
+  </si>
+  <si>
+    <t>∆S</t>
+  </si>
+  <si>
+    <t>∆sDIC</t>
+  </si>
+  <si>
+    <t>∆sALK</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CalCS - NPGO (no smoothing)</t>
+  </si>
+  <si>
+    <t>FIX 033</t>
+  </si>
+  <si>
+    <t>sDIC</t>
+  </si>
+  <si>
+    <t>sALK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,8 +184,44 @@
       <color rgb="FF484848"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +252,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -190,10 +289,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -205,10 +308,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,20 +606,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -528,55 +650,55 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="I4" s="9"/>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="I5" s="10"/>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="I6" s="8"/>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -585,10 +707,14 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -597,10 +723,14 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -609,10 +739,10 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -621,10 +751,10 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -633,37 +763,183 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I19" s="5"/>
+      <c r="J19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="J18:K18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>